--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -778,8 +779,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
     <fill>
@@ -961,7 +962,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1000,7 +1001,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1031,51 +1032,51 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="43.6883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="64.2372093023256"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.8976744186047"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="38.6418604651163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.2"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="82.5767441860465"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="175.609302325581"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="42.7023255813953"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="31.2558139534884"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="85.8976744186047"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.8139534883721"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="34.5813953488372"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="41.2279069767442"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="2" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="45.0418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.2093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.9906976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="39.7488372093023"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="85.1581395348837"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="181.023255813953"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="28.0604651162791"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="44.0558139534884"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="33.3488372093023"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.2"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.2"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.7488372093023"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="32.1209302325581"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="88.4837209302326"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="35.6883720930233"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="42.4558139534884"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="2" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="13.1674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -11,16 +11,20 @@
     <sheet name="HoReCa Bar Tavern_Night Club" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="209">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -399,12 +403,12 @@
     <t xml:space="preserve">Берн/Монстер 0.33л/0.5л любой</t>
   </si>
   <si>
+    <t xml:space="preserve">Burn, Monster</t>
+  </si>
+  <si>
     <t xml:space="preserve">TCCC</t>
   </si>
   <si>
-    <t xml:space="preserve">Burn, Monster</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
@@ -459,10 +463,7 @@
     <t xml:space="preserve">SSD, Water, Juices</t>
   </si>
   <si>
-    <t xml:space="preserve">MAN in CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass</t>
+    <t xml:space="preserve">glass, GLASS</t>
   </si>
   <si>
     <t xml:space="preserve">Destination Activation</t>
@@ -1027,56 +1028,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
+      <selection pane="bottomLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="45.0418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.2093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.9906976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="39.7488372093023"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="85.1581395348837"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="181.023255813953"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="28.0604651162791"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="44.0558139534884"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="33.3488372093023"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.2"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.2"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.7488372093023"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="32.1209302325581"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="88.4837209302326"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="35.6883720930233"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="36.4279069767442"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="42.4558139534884"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="2" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.4558139534884"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="74.4511627906977"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="80.9767441860465"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.6697674418605"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="95.7441860465116"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="53.5581395348837"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.2558139534884"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="49.4697674418605"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="37.4093023255814"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="34.4558139534884"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="35.6883720930233"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="36.1813953488372"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="99.8046511627907"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="40.7348837209302"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="47.6232558139535"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1023" min="40" style="1" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="14.5209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1170,32 +1171,31 @@
       <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AH1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="AK1" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1245,21 +1245,20 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
+      <c r="AJ2" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AK2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AL2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="8"/>
+      <c r="AM2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
@@ -1307,21 +1306,20 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
+      <c r="AJ3" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AK3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="11" t="n">
         <v>310</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AN3" s="11"/>
+      <c r="AM3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
@@ -1369,21 +1367,20 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
+      <c r="AJ4" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AK4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="11" t="n">
         <v>312</v>
       </c>
-      <c r="AM4" s="8" t="n">
+      <c r="AL4" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AM4" s="11" t="n">
         <v>310</v>
       </c>
     </row>
@@ -1433,21 +1430,20 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
+      <c r="AJ5" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AK5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="11" t="n">
         <v>400</v>
       </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AL5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AN5" s="11"/>
+      <c r="AM5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
@@ -1496,24 +1492,23 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8" t="s">
+      <c r="AE6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AG6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
+      <c r="AJ6" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AM6" s="13" t="s">
+      <c r="AL6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN6" s="8" t="n">
+      <c r="AM6" s="8" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1578,24 +1573,23 @@
       </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8" t="s">
+      <c r="AE7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG7" s="10" t="n">
+      <c r="AF7" s="10" t="n">
         <v>0.050031</v>
       </c>
+      <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
+      <c r="AJ7" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK7" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL7" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8" t="n">
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1660,24 +1654,23 @@
       </c>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8" t="s">
+      <c r="AE8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="10" t="n">
+      <c r="AF8" s="10" t="n">
         <v>0.050004</v>
       </c>
+      <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
+      <c r="AJ8" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK8" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AL8" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8" t="n">
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,24 +1735,23 @@
       </c>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8" t="s">
+      <c r="AE9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG9" s="10" t="n">
+      <c r="AF9" s="10" t="n">
         <v>0.033993</v>
       </c>
+      <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
+      <c r="AJ9" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK9" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL9" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8" t="n">
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,24 +1816,23 @@
       </c>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8" t="s">
+      <c r="AE10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG10" s="10" t="n">
+      <c r="AF10" s="10" t="n">
         <v>0.033993</v>
       </c>
+      <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
+      <c r="AJ10" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK10" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL10" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8" t="n">
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,24 +1897,23 @@
       </c>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8" t="s">
+      <c r="AE11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG11" s="10" t="n">
+      <c r="AF11" s="10" t="n">
         <v>0.033993</v>
       </c>
+      <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
+      <c r="AJ11" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK11" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL11" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8" t="n">
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,24 +1978,23 @@
       </c>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8" t="s">
+      <c r="AE12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG12" s="10" t="n">
+      <c r="AF12" s="10" t="n">
         <v>0.033993</v>
       </c>
+      <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
+      <c r="AJ12" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK12" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL12" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8" t="n">
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,24 +2059,23 @@
       </c>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8" t="s">
+      <c r="AE13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG13" s="10" t="n">
+      <c r="AF13" s="10" t="n">
         <v>0.033993</v>
       </c>
+      <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
+      <c r="AJ13" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK13" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL13" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8" t="n">
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2140,24 +2128,23 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8" t="s">
+      <c r="AE14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AG14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
+      <c r="AJ14" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK14" s="8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AL14" s="8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM14" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN14" s="8" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2222,24 +2209,23 @@
       </c>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8" t="s">
+      <c r="AE15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG15" s="10" t="n">
+      <c r="AF15" s="10" t="n">
         <v>0.050002</v>
       </c>
-      <c r="AH15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
+      <c r="AJ15" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK15" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL15" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8" t="n">
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2292,24 +2278,23 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8" t="s">
+      <c r="AE16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AG16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
+      <c r="AJ16" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK16" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL16" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="AM16" s="16" t="s">
+      <c r="AL16" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AN16" s="8" t="n">
+      <c r="AM16" s="8" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2374,24 +2359,23 @@
       </c>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8" t="s">
+      <c r="AE17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG17" s="10" t="n">
+      <c r="AF17" s="10" t="n">
         <v>0.050002</v>
       </c>
+      <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
+      <c r="AJ17" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK17" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL17" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8" t="n">
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2456,24 +2440,23 @@
       </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8" t="s">
+      <c r="AE18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG18" s="10" t="n">
+      <c r="AF18" s="10" t="n">
         <v>0.035006</v>
       </c>
+      <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
+      <c r="AJ18" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK18" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL18" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8" t="n">
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2538,24 +2521,23 @@
       </c>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8" t="s">
+      <c r="AE19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG19" s="10" t="n">
+      <c r="AF19" s="10" t="n">
         <v>0.035006</v>
       </c>
+      <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
+      <c r="AJ19" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK19" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL19" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8" t="n">
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2612,26 +2594,25 @@
       </c>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8" t="s">
+      <c r="AE20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG20" s="10" t="n">
+      <c r="AF20" s="10" t="n">
         <v>0.025001</v>
       </c>
+      <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
+      <c r="AJ20" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK20" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL20" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="AM20" s="13" t="s">
+      <c r="AL20" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AN20" s="8" t="n">
+      <c r="AM20" s="8" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2696,22 +2677,21 @@
       </c>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8" t="s">
+      <c r="AE21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
+      <c r="AJ21" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="AK21" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL21" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="16" t="n">
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2776,22 +2756,21 @@
       </c>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8" t="s">
+      <c r="AE22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
+      <c r="AJ22" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="AK22" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL22" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="16" t="n">
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2856,22 +2835,21 @@
       </c>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8" t="s">
+      <c r="AE23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
+      <c r="AJ23" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="AK23" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL23" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="16" t="n">
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2936,22 +2914,21 @@
       </c>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8" t="s">
+      <c r="AE24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
+      <c r="AJ24" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="AK24" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL24" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="16" t="n">
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3004,24 +2981,23 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8" t="s">
+      <c r="AE25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AG25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
+      <c r="AJ25" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK25" s="8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AL25" s="8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM25" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN25" s="8" t="n">
         <v>300</v>
       </c>
     </row>
@@ -3057,14 +3033,16 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="11"/>
+      <c r="N26" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S26" s="8" t="s">
         <v>62</v>
@@ -3088,24 +3066,23 @@
       </c>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8" t="s">
+      <c r="AE26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG26" s="10" t="n">
+      <c r="AF26" s="10" t="n">
         <v>0.034983</v>
       </c>
+      <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
+      <c r="AJ26" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK26" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL26" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8" t="n">
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3170,24 +3147,23 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8" t="s">
+      <c r="AE27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG27" s="10" t="n">
+      <c r="AF27" s="10" t="n">
         <v>0.166667</v>
       </c>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="8"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK27" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL27" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8" t="n">
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8" t="n">
         <v>400</v>
       </c>
     </row>
@@ -3246,26 +3222,25 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8" t="s">
+      <c r="AE28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG28" s="10" t="n">
+      <c r="AF28" s="10" t="n">
         <v>0.083333</v>
       </c>
-      <c r="AH28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
+      <c r="AJ28" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK28" s="8" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AL28" s="8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM28" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN28" s="8" t="n">
         <v>400</v>
       </c>
     </row>
@@ -3316,11 +3291,11 @@
         <v>62</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
@@ -3334,22 +3309,21 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8" t="s">
+      <c r="AE29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="15"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
+      <c r="AJ29" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK29" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL29" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="8" t="n">
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3370,10 +3344,10 @@
         <v>125</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>128</v>
@@ -3403,31 +3377,30 @@
         <v>123</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8" t="s">
+      <c r="AE30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG30" s="10" t="n">
+      <c r="AF30" s="10" t="n">
         <v>0.083333</v>
       </c>
-      <c r="AH30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
+      <c r="AJ30" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK30" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL30" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AM30" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN30" s="8" t="n">
+      <c r="AL30" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM30" s="8" t="n">
         <v>400</v>
       </c>
     </row>
@@ -3448,10 +3421,10 @@
         <v>125</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>61</v>
@@ -3463,13 +3436,13 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -3478,7 +3451,7 @@
         <v>62</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -3489,27 +3462,26 @@
         <v>123</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8" t="s">
+      <c r="AE31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="15"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
+      <c r="AJ31" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK31" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL31" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="8" t="n">
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3530,10 +3502,10 @@
         <v>125</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>61</v>
@@ -3545,16 +3517,16 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S32" s="8" t="s">
         <v>62</v>
@@ -3564,7 +3536,7 @@
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
@@ -3573,27 +3545,26 @@
         <v>123</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8" t="s">
+      <c r="AE32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="15"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
+      <c r="AJ32" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK32" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL32" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="8" t="n">
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3608,16 +3579,16 @@
         <v>40</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>128</v>
@@ -3648,26 +3619,25 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8" t="s">
+      <c r="AE33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG33" s="20" t="n">
+      <c r="AF33" s="20" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
+      <c r="AJ33" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK33" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL33" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="AM33" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN33" s="8" t="n">
+      <c r="AL33" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM33" s="8" t="n">
         <v>400</v>
       </c>
     </row>
@@ -3682,16 +3652,16 @@
         <v>40</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="F34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>61</v>
@@ -3704,15 +3674,15 @@
       <c r="L34" s="22"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S34" s="8" t="s">
         <v>62</v>
@@ -3727,27 +3697,26 @@
       <c r="Y34" s="22"/>
       <c r="Z34" s="22"/>
       <c r="AA34" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB34" s="22"/>
       <c r="AC34" s="22"/>
       <c r="AD34" s="22"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8" t="s">
+      <c r="AE34" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="AF34" s="22"/>
       <c r="AG34" s="22"/>
       <c r="AH34" s="22"/>
       <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
+      <c r="AJ34" s="23" t="n">
+        <v>3</v>
+      </c>
       <c r="AK34" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL34" s="23" t="n">
         <v>900</v>
       </c>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23" t="n">
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3762,16 +3731,16 @@
         <v>40</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="F35" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>100</v>
@@ -3799,29 +3768,28 @@
       <c r="Y35" s="22"/>
       <c r="Z35" s="22"/>
       <c r="AA35" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB35" s="22"/>
       <c r="AC35" s="22"/>
       <c r="AD35" s="22"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8" t="s">
+      <c r="AE35" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="AF35" s="22"/>
       <c r="AG35" s="22"/>
       <c r="AH35" s="22"/>
       <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
+      <c r="AJ35" s="23" t="n">
+        <v>3</v>
+      </c>
       <c r="AK35" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL35" s="23" t="n">
         <v>901</v>
       </c>
-      <c r="AM35" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN35" s="23" t="n">
+      <c r="AL35" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM35" s="23" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3836,16 +3804,16 @@
         <v>40</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="F36" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>61</v>
@@ -3858,15 +3826,15 @@
       <c r="L36" s="22"/>
       <c r="M36" s="8"/>
       <c r="N36" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S36" s="8" t="s">
         <v>62</v>
@@ -3881,27 +3849,26 @@
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
       <c r="AA36" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB36" s="22"/>
       <c r="AC36" s="22"/>
       <c r="AD36" s="22"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8" t="s">
+      <c r="AE36" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="AF36" s="22"/>
       <c r="AG36" s="22"/>
       <c r="AH36" s="22"/>
       <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
+      <c r="AJ36" s="23" t="n">
+        <v>4</v>
+      </c>
       <c r="AK36" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL36" s="23" t="n">
         <v>902</v>
       </c>
-      <c r="AM36" s="23"/>
-      <c r="AN36" s="23" t="n">
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="23" t="n">
         <v>901</v>
       </c>
     </row>
@@ -3916,16 +3883,16 @@
         <v>40</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="F37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>61</v>
@@ -3937,7 +3904,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N37" s="8" t="n">
         <v>5000034</v>
@@ -3959,27 +3926,26 @@
       <c r="Y37" s="22"/>
       <c r="Z37" s="22"/>
       <c r="AA37" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB37" s="22"/>
       <c r="AC37" s="22"/>
       <c r="AD37" s="22"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8" t="s">
+      <c r="AE37" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="AF37" s="22"/>
       <c r="AG37" s="22"/>
       <c r="AH37" s="22"/>
       <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
+      <c r="AJ37" s="23" t="n">
+        <v>4</v>
+      </c>
       <c r="AK37" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL37" s="23" t="n">
         <v>903</v>
       </c>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="23" t="n">
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23" t="n">
         <v>901</v>
       </c>
     </row>
@@ -3994,16 +3960,16 @@
         <v>40</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="G38" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>128</v>
@@ -4028,32 +3994,31 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="15" t="s">
+      <c r="AE38" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AG38" s="10" t="n">
+      <c r="AF38" s="10" t="n">
         <v>0.046667</v>
       </c>
+      <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
+      <c r="AJ38" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK38" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL38" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AM38" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN38" s="8" t="n">
+      <c r="AL38" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM38" s="8" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4068,19 +4033,19 @@
         <v>40</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F39" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="n">
@@ -4098,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
@@ -4109,27 +4074,26 @@
         <v>64</v>
       </c>
       <c r="AA39" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="15" t="s">
+      <c r="AE39" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AG39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
+      <c r="AJ39" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK39" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL39" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="AM39" s="8"/>
-      <c r="AN39" s="8" t="n">
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8" t="n">
         <v>33</v>
       </c>
     </row>
@@ -4144,19 +4108,19 @@
         <v>40</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F40" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="n">
@@ -4168,7 +4132,7 @@
         <v>132</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -4178,7 +4142,7 @@
         <v>62</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -4186,30 +4150,29 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="15" t="s">
+      <c r="AE40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AG40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8" t="s">
-        <v>180</v>
+      <c r="AI40" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ40" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="AK40" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL40" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="8" t="n">
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8" t="n">
         <v>33</v>
       </c>
     </row>
@@ -4224,19 +4187,19 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F41" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="n">
@@ -4248,7 +4211,7 @@
         <v>132</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
@@ -4258,7 +4221,7 @@
         <v>62</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
@@ -4266,30 +4229,29 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="15" t="s">
+      <c r="AE41" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AG41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8" t="s">
-        <v>184</v>
+      <c r="AI41" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ41" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="AK41" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL41" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="AM41" s="8"/>
-      <c r="AN41" s="8" t="n">
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8" t="n">
         <v>33</v>
       </c>
     </row>
@@ -4304,22 +4266,22 @@
         <v>40</v>
       </c>
       <c r="D42" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="25" t="s">
+      <c r="G42" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="H42" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="I42" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -4332,7 +4294,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
@@ -4345,19 +4307,18 @@
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
+      <c r="AK42" s="8" t="n">
+        <v>38</v>
+      </c>
       <c r="AL42" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM42" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AN42" s="8"/>
+      <c r="AM42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="n">
@@ -4370,29 +4331,29 @@
         <v>40</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>118</v>
       </c>
       <c r="F43" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="H43" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="I43" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
@@ -4400,7 +4361,7 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
@@ -4413,19 +4374,18 @@
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
+      <c r="AK43" s="8" t="n">
+        <v>39</v>
+      </c>
       <c r="AL43" s="8" t="n">
-        <v>39</v>
-      </c>
-      <c r="AM43" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="AN43" s="8"/>
+      <c r="AM43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="n">
@@ -4438,29 +4398,29 @@
         <v>40</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>125</v>
       </c>
       <c r="F44" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="H44" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
@@ -4468,7 +4428,7 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
@@ -4481,19 +4441,18 @@
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
+      <c r="AK44" s="8" t="n">
+        <v>40</v>
+      </c>
       <c r="AL44" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM44" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="AN44" s="8"/>
+      <c r="AM44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="n">
@@ -4506,29 +4465,29 @@
         <v>40</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>125</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="H45" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
@@ -4536,7 +4495,7 @@
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
@@ -4549,19 +4508,18 @@
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="8"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
-      <c r="AK45" s="8"/>
+      <c r="AK45" s="8" t="n">
+        <v>41</v>
+      </c>
       <c r="AL45" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM45" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AN45" s="8"/>
+      <c r="AM45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="n">
@@ -4574,29 +4532,29 @@
         <v>40</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E46" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="G46" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G46" s="25" t="s">
-        <v>202</v>
-      </c>
       <c r="H46" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -4604,7 +4562,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
@@ -4617,19 +4575,18 @@
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
-      <c r="AF46" s="8"/>
-      <c r="AG46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="8"/>
       <c r="AH46" s="8"/>
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="8" t="n">
+      <c r="AK46" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="AM46" s="16" t="n">
+      <c r="AL46" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="AN46" s="8"/>
+      <c r="AM46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="n">
@@ -4642,29 +4599,29 @@
         <v>40</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="G47" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="G47" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="H47" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -4672,7 +4629,7 @@
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
@@ -4685,19 +4642,18 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="8"/>
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
-      <c r="AK47" s="8"/>
-      <c r="AL47" s="8" t="n">
+      <c r="AK47" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="AM47" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN47" s="8"/>
+      <c r="AL47" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
@@ -4710,29 +4666,29 @@
         <v>40</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="G48" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="G48" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="H48" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
@@ -4740,7 +4696,7 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
@@ -4753,22 +4709,21 @@
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
       <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="8"/>
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="8" t="n">
+      <c r="AK48" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="AM48" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN48" s="8"/>
+      <c r="AL48" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM48" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN48"/>
+  <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -25,6 +25,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -463,6 +465,9 @@
     <t xml:space="preserve">SSD, Water, Juices</t>
   </si>
   <si>
+    <t xml:space="preserve">CAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">glass, GLASS</t>
   </si>
   <si>
@@ -486,9 +491,6 @@
   </si>
   <si>
     <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT</t>
   </si>
   <si>
     <t xml:space="preserve">Destination: Coca-Cola/Bon Aqua NRGB</t>
@@ -1033,51 +1035,51 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.4558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="74.4511627906977"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="80.9767441860465"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.6697674418605"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="95.7441860465116"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="53.5581395348837"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.2558139534884"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="49.4697674418605"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="37.4093023255814"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="34.4558139534884"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="35.6883720930233"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="36.1813953488372"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="99.8046511627907"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="39.9953488372093"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="40.7348837209302"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.4744186046512"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="47.6232558139535"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="1023" min="40" style="1" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="53.4093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="79.0046511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.8976744186047"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.2558139534884"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="101.772093023256"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="56.7302325581395"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="33.1023255813953"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="52.5488372093023"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="39.6279069767442"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="29.1674418604651"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="37.7813953488372"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.1488372093023"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="105.832558139535"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="42.4558139534884"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="43.1953488372093"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="26.9488372093023"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="50.4558139534884"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1023" min="40" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="15.2604651162791"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3291,11 +3293,11 @@
         <v>62</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
@@ -3344,10 +3346,10 @@
         <v>125</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>128</v>
@@ -3377,7 +3379,7 @@
         <v>123</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -3398,7 +3400,7 @@
         <v>25</v>
       </c>
       <c r="AL30" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM30" s="8" t="n">
         <v>400</v>
@@ -3421,10 +3423,10 @@
         <v>125</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>61</v>
@@ -3436,13 +3438,13 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -3451,7 +3453,7 @@
         <v>62</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -3462,7 +3464,7 @@
         <v>123</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -3536,7 +3538,7 @@
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
@@ -3545,7 +3547,7 @@
         <v>123</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
@@ -3829,7 +3831,7 @@
         <v>161</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -12,21 +12,21 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="208">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -281,13 +281,10 @@
     <t xml:space="preserve">Швеппс Шпритц - 0.25л стекло</t>
   </si>
   <si>
-    <t xml:space="preserve">New SKU 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Royal - 0.25L Glass</t>
+    <t xml:space="preserve">Schweppes Ginger Spritz - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Имбирь - 0.25л стекло</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite - 0.25L Glass/Fanta Orange - 0.25L Glass</t>
@@ -773,7 +770,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,6 +781,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCC9900"/>
         <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -844,17 +847,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -905,19 +908,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -925,7 +936,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -939,10 +950,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1009,7 +1016,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1035,54 +1042,53 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="53.4093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="79.0046511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.8976744186047"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.2558139534884"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="101.772093023256"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="56.7302325581395"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="33.1023255813953"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="52.5488372093023"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="39.6279069767442"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="29.1674418604651"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="37.7813953488372"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.1488372093023"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="105.832558139535"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="42.4558139534884"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="43.1953488372093"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="26.9488372093023"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="50.4558139534884"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="1023" min="40" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="55.0093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="81.3441860465116"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="88.4837209302326"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.6093023255814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="104.851162790698"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="58.4558139534884"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="34.0883720930233"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="54.0232558139535"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="40.7348837209302"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="37.5348837209302"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="38.8883720930233"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="39.2558139534884"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="109.032558139535"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="43.6883720930233"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="44.5488372093023"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="27.8139534883721"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="51.9302325581395"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="15.6279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>41</v>
       </c>
@@ -1262,7 +1268,7 @@
       </c>
       <c r="AM2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
         <v>42</v>
       </c>
@@ -1323,7 +1329,7 @@
       </c>
       <c r="AM3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>43</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>44</v>
       </c>
@@ -1447,7 +1453,7 @@
       </c>
       <c r="AM5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>1</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>2</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>3</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>4</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>5</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>6</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>7</v>
       </c>
@@ -1935,10 +1941,10 @@
       <c r="E12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>76</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -1950,11 +1956,11 @@
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="11" t="n">
-        <v>1111111</v>
+      <c r="M12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <v>42357285</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -2000,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>8</v>
       </c>
@@ -2017,10 +2023,10 @@
         <v>53</v>
       </c>
       <c r="F13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>61</v>
@@ -2032,10 +2038,10 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -2081,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>9</v>
       </c>
@@ -2095,13 +2101,13 @@
         <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>56</v>
@@ -2150,7 +2156,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>10</v>
       </c>
@@ -2164,13 +2170,13 @@
         <v>41</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>61</v>
@@ -2182,10 +2188,10 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -2217,7 +2223,7 @@
       <c r="AF15" s="10" t="n">
         <v>0.050002</v>
       </c>
-      <c r="AG15" s="15"/>
+      <c r="AG15" s="17"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8" t="n">
@@ -2231,7 +2237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>11</v>
       </c>
@@ -2245,13 +2251,13 @@
         <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>56</v>
@@ -2293,14 +2299,14 @@
       <c r="AK16" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="AL16" s="16" t="s">
-        <v>91</v>
+      <c r="AL16" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="AM16" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>12</v>
       </c>
@@ -2314,13 +2320,13 @@
         <v>41</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>61</v>
@@ -2332,7 +2338,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="11" t="n">
         <v>4650075420386</v>
@@ -2381,7 +2387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>13</v>
       </c>
@@ -2395,13 +2401,13 @@
         <v>41</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>61</v>
@@ -2413,7 +2419,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N18" s="11" t="n">
         <v>4650075420362</v>
@@ -2462,7 +2468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>19</v>
       </c>
@@ -2476,13 +2482,13 @@
         <v>41</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>61</v>
@@ -2494,7 +2500,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N19" s="11" t="n">
         <v>4650075420409</v>
@@ -2543,7 +2549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>14</v>
       </c>
@@ -2557,16 +2563,16 @@
         <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="H20" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8" t="n">
@@ -2612,13 +2618,13 @@
         <v>15</v>
       </c>
       <c r="AL20" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM20" s="8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>15</v>
       </c>
@@ -2632,13 +2638,13 @@
         <v>41</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>61</v>
@@ -2650,7 +2656,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N21" s="11" t="n">
         <v>4650075420508</v>
@@ -2693,11 +2699,11 @@
         <v>16</v>
       </c>
       <c r="AL21" s="8"/>
-      <c r="AM21" s="16" t="n">
+      <c r="AM21" s="18" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>16</v>
       </c>
@@ -2711,13 +2717,13 @@
         <v>41</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>61</v>
@@ -2729,7 +2735,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N22" s="11" t="n">
         <v>4650075420423</v>
@@ -2772,11 +2778,11 @@
         <v>17</v>
       </c>
       <c r="AL22" s="8"/>
-      <c r="AM22" s="16" t="n">
+      <c r="AM22" s="18" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>17</v>
       </c>
@@ -2790,13 +2796,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>61</v>
@@ -2808,7 +2814,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N23" s="11" t="n">
         <v>4650075420485</v>
@@ -2851,11 +2857,11 @@
         <v>18</v>
       </c>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="16" t="n">
+      <c r="AM23" s="18" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>18</v>
       </c>
@@ -2869,13 +2875,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>61</v>
@@ -2887,7 +2893,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N24" s="11" t="n">
         <v>4650075420447</v>
@@ -2930,11 +2936,11 @@
         <v>19</v>
       </c>
       <c r="AL24" s="8"/>
-      <c r="AM24" s="16" t="n">
+      <c r="AM24" s="18" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>20</v>
       </c>
@@ -2948,13 +2954,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>56</v>
@@ -3003,7 +3009,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>21</v>
       </c>
@@ -3017,13 +3023,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>61</v>
@@ -3036,24 +3042,24 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T26" s="17" t="s">
+      <c r="T26" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="U26" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="U26" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
@@ -3088,7 +3094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>23</v>
       </c>
@@ -3102,13 +3108,13 @@
         <v>41</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>61</v>
@@ -3120,10 +3126,10 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -3141,10 +3147,10 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA27" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="AA27" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -3155,8 +3161,8 @@
       <c r="AF27" s="10" t="n">
         <v>0.166667</v>
       </c>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="19"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="21"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8" t="n">
         <v>2</v>
@@ -3169,7 +3175,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>24</v>
       </c>
@@ -3183,16 +3189,16 @@
         <v>41</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="n">
@@ -3216,10 +3222,10 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA28" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -3230,7 +3236,7 @@
       <c r="AF28" s="10" t="n">
         <v>0.083333</v>
       </c>
-      <c r="AG28" s="15"/>
+      <c r="AG28" s="17"/>
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8" t="n">
@@ -3246,7 +3252,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>25</v>
       </c>
@@ -3260,13 +3266,13 @@
         <v>41</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>61</v>
@@ -3278,13 +3284,13 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N29" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="O29" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -3293,20 +3299,20 @@
         <v>62</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -3315,7 +3321,7 @@
         <v>66</v>
       </c>
       <c r="AF29" s="10"/>
-      <c r="AG29" s="15"/>
+      <c r="AG29" s="17"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8" t="n">
@@ -3329,7 +3335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>26</v>
       </c>
@@ -3343,16 +3349,16 @@
         <v>41</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="H30" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="n">
@@ -3376,10 +3382,10 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -3390,7 +3396,7 @@
       <c r="AF30" s="10" t="n">
         <v>0.083333</v>
       </c>
-      <c r="AG30" s="15"/>
+      <c r="AG30" s="17"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8" t="n">
@@ -3400,13 +3406,13 @@
         <v>25</v>
       </c>
       <c r="AL30" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AM30" s="8" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>27</v>
       </c>
@@ -3420,13 +3426,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>61</v>
@@ -3438,13 +3444,13 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -3453,7 +3459,7 @@
         <v>62</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -3461,10 +3467,10 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -3473,7 +3479,7 @@
         <v>66</v>
       </c>
       <c r="AF31" s="10"/>
-      <c r="AG31" s="15"/>
+      <c r="AG31" s="17"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8" t="n">
@@ -3487,7 +3493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="n">
         <v>28</v>
       </c>
@@ -3501,13 +3507,13 @@
         <v>41</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>61</v>
@@ -3519,35 +3525,35 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S32" s="8" t="s">
         <v>62</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
@@ -3556,7 +3562,7 @@
         <v>66</v>
       </c>
       <c r="AF32" s="10"/>
-      <c r="AG32" s="15"/>
+      <c r="AG32" s="17"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8" t="n">
@@ -3570,7 +3576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="n">
         <v>29</v>
       </c>
@@ -3581,19 +3587,19 @@
         <v>40</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="H33" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="n">
@@ -3624,7 +3630,7 @@
       <c r="AE33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AF33" s="20" t="n">
+      <c r="AF33" s="22" t="n">
         <v>0.12</v>
       </c>
       <c r="AG33" s="8"/>
@@ -3636,14 +3642,14 @@
       <c r="AK33" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="AL33" s="21" t="s">
-        <v>150</v>
+      <c r="AL33" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="AM33" s="8" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="n">
         <v>30</v>
       </c>
@@ -3654,75 +3660,74 @@
         <v>40</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="F34" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23" t="n">
+      <c r="I34" s="24"/>
+      <c r="J34" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="R34" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T34" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="U34" s="24"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
+      <c r="T34" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
       <c r="AA34" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
+        <v>154</v>
+      </c>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
       <c r="AE34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="23" t="n">
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="AK34" s="23" t="n">
+      <c r="AK34" s="25" t="n">
         <v>900</v>
       </c>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="23" t="n">
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="n">
         <v>31</v>
       </c>
@@ -3733,69 +3738,69 @@
         <v>40</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="F35" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="H35" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23" t="n">
+        <v>99</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
       <c r="S35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
       <c r="AA35" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
+        <v>154</v>
+      </c>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
       <c r="AE35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="23" t="n">
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="AK35" s="23" t="n">
+      <c r="AK35" s="25" t="n">
         <v>901</v>
       </c>
-      <c r="AL35" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM35" s="23" t="n">
+      <c r="AL35" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM35" s="25" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="n">
         <v>32</v>
       </c>
@@ -3806,75 +3811,75 @@
         <v>40</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="F36" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23" t="n">
+      <c r="I36" s="24"/>
+      <c r="J36" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="22" t="s">
-        <v>161</v>
+      <c r="N36" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22" t="s">
-        <v>161</v>
+        <v>141</v>
+      </c>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="S36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T36" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
+      <c r="T36" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
       <c r="AA36" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
+        <v>154</v>
+      </c>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
       <c r="AE36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="23" t="n">
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AK36" s="23" t="n">
+      <c r="AK36" s="25" t="n">
         <v>902</v>
       </c>
-      <c r="AL36" s="23"/>
-      <c r="AM36" s="23" t="n">
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25" t="n">
         <v>901</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="n">
         <v>33</v>
       </c>
@@ -3885,73 +3890,73 @@
         <v>40</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="F37" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23" t="n">
+      <c r="I37" s="24"/>
+      <c r="J37" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N37" s="8" t="n">
         <v>5000034</v>
       </c>
       <c r="O37" s="8"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
       <c r="S37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T37" s="22" t="s">
+      <c r="T37" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
       <c r="AA37" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
+        <v>154</v>
+      </c>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
       <c r="AE37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="23" t="n">
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AK37" s="23" t="n">
+      <c r="AK37" s="25" t="n">
         <v>903</v>
       </c>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="23" t="n">
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25" t="n">
         <v>901</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="n">
         <v>34</v>
       </c>
@@ -3962,19 +3967,19 @@
         <v>40</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="G38" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="H38" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8" t="n">
@@ -3996,13 +4001,13 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="15" t="s">
+      <c r="AE38" s="17" t="s">
         <v>66</v>
       </c>
       <c r="AF38" s="10" t="n">
@@ -4017,14 +4022,14 @@
       <c r="AK38" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AL38" s="16" t="s">
-        <v>169</v>
+      <c r="AL38" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="AM38" s="8" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="n">
         <v>35</v>
       </c>
@@ -4035,19 +4040,19 @@
         <v>40</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="n">
@@ -4065,7 +4070,7 @@
         <v>62</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
@@ -4076,12 +4081,12 @@
         <v>64</v>
       </c>
       <c r="AA39" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
-      <c r="AE39" s="15" t="s">
+      <c r="AE39" s="17" t="s">
         <v>66</v>
       </c>
       <c r="AF39" s="10"/>
@@ -4099,7 +4104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="n">
         <v>36</v>
       </c>
@@ -4110,19 +4115,19 @@
         <v>40</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="n">
@@ -4131,10 +4136,10 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -4144,7 +4149,7 @@
         <v>62</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -4152,20 +4157,20 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
-      <c r="AE40" s="15" t="s">
+      <c r="AE40" s="17" t="s">
         <v>66</v>
       </c>
       <c r="AF40" s="10"/>
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AJ40" s="8" t="n">
         <v>3</v>
@@ -4178,7 +4183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="n">
         <v>37</v>
       </c>
@@ -4189,19 +4194,19 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F41" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="n">
@@ -4210,10 +4215,10 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
@@ -4223,7 +4228,7 @@
         <v>62</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
@@ -4231,20 +4236,20 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
-      <c r="AE41" s="15" t="s">
+      <c r="AE41" s="17" t="s">
         <v>66</v>
       </c>
       <c r="AF41" s="10"/>
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
       <c r="AI41" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AJ41" s="8" t="n">
         <v>3</v>
@@ -4257,7 +4262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="n">
         <v>38</v>
       </c>
@@ -4268,22 +4273,22 @@
         <v>40</v>
       </c>
       <c r="D42" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="25" t="s">
+      <c r="G42" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="H42" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="I42" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -4296,7 +4301,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
@@ -4322,7 +4327,7 @@
       </c>
       <c r="AM42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="n">
         <v>39</v>
       </c>
@@ -4333,29 +4338,29 @@
         <v>40</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="H43" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="I43" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
@@ -4363,7 +4368,7 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
@@ -4389,7 +4394,7 @@
       </c>
       <c r="AM43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="n">
         <v>40</v>
       </c>
@@ -4400,29 +4405,29 @@
         <v>40</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="H44" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
@@ -4430,7 +4435,7 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
@@ -4456,7 +4461,7 @@
       </c>
       <c r="AM44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="n">
         <v>41</v>
       </c>
@@ -4467,29 +4472,29 @@
         <v>40</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="H45" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
@@ -4497,7 +4502,7 @@
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
@@ -4523,7 +4528,7 @@
       </c>
       <c r="AM45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="n">
         <v>42</v>
       </c>
@@ -4534,29 +4539,29 @@
         <v>40</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="G46" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G46" s="25" t="s">
-        <v>201</v>
-      </c>
       <c r="H46" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -4564,7 +4569,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
@@ -4585,12 +4590,12 @@
       <c r="AK46" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="AL46" s="16" t="n">
+      <c r="AL46" s="18" t="n">
         <v>29</v>
       </c>
       <c r="AM46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="n">
         <v>43</v>
       </c>
@@ -4601,29 +4606,29 @@
         <v>40</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="G47" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="G47" s="25" t="s">
-        <v>204</v>
-      </c>
       <c r="H47" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -4631,7 +4636,7 @@
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
@@ -4653,11 +4658,11 @@
         <v>44</v>
       </c>
       <c r="AL47" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
         <v>44</v>
       </c>
@@ -4668,29 +4673,29 @@
         <v>40</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="G48" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="25" t="s">
-        <v>204</v>
-      </c>
       <c r="H48" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I48" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
@@ -4698,7 +4703,7 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
@@ -4720,7 +4725,7 @@
         <v>45</v>
       </c>
       <c r="AL48" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AM48" s="8"/>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -27,6 +27,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -779,8 +780,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -990,7 +991,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1011,7 +1012,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFCC9900"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1042,50 +1043,51 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="55.0093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="81.3441860465116"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="88.4837209302326"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.6093023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="104.851162790698"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="58.4558139534884"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="34.0883720930233"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="54.0232558139535"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="40.7348837209302"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="37.5348837209302"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="39.2558139534884"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="109.032558139535"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="43.6883720930233"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="44.5488372093023"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="27.8139534883721"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="51.9302325581395"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.7627906976744"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.5023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7767441860465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.8651162790698"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="55.2046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.9627906976744"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8558139534884"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.4"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="225.120930232558"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="138.083720930233"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7348837209302"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.753488372093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="25.893023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.0372093023256"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.8325581395349"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.0372093023256"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="8.88372093023256"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.9395348837209"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.906976744186"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.3767441860465"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.6279069767442"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.0883720930233"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="67.8744186046512"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.093023255814"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.706976744186"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="28.246511627907"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.9348837209302"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.8558139534884"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.953488372093"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.4976744186047"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="32.7674418604651"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.70232558139535"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.1441860465116"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.5116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.5023255813953"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3698,6 +3700,7 @@
       <c r="T34" s="24" t="s">
         <v>115</v>
       </c>
+      <c r="U34" s="0"/>
       <c r="V34" s="24"/>
       <c r="W34" s="24"/>
       <c r="X34" s="24"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="211">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -705,12 +706,21 @@
 36
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
@@ -718,6 +728,8 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -848,7 +860,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -957,6 +969,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1038,56 +1066,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="1:49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AB49" activeCellId="0" sqref="49:49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.7627906976744"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.5023255813953"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7767441860465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.8651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="55.2046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.9627906976744"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1162790697674"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8558139534884"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.4"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="225.120930232558"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="138.083720930233"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7348837209302"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.753488372093"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="25.893023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.0372093023256"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.8325581395349"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.0372093023256"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="8.88372093023256"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.9395348837209"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.906976744186"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.3767441860465"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.6279069767442"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.0883720930233"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="67.8744186046512"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.093023255814"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.706976744186"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="28.246511627907"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.9348837209302"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.8558139534884"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.953488372093"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.4976744186047"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="32.7674418604651"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.70232558139535"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.1441860465116"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.5116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.8093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.4232558139535"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="56.8558139534884"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.8744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="231.972093023256"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="142.260465116279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.3953488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.3488372093023"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="69.8976744186047"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.5488372093023"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.4"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4732,6 +4760,68 @@
       </c>
       <c r="AM48" s="8"/>
     </row>
+    <row r="49" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="n">
+        <v>904</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8" t="n">
+        <v>904</v>
+      </c>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AMJ49" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
